--- a/CMPE 281 -  Kanban Flow Diagram(Team Wizards).xlsx
+++ b/CMPE 281 -  Kanban Flow Diagram(Team Wizards).xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28615"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manas\Desktop\cmpe\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/divyabharti/Documents/GitHub/cmpe281-wizards/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="1" r:id="rId1"/>
@@ -19,17 +19,25 @@
     <sheet name="WIP and Average Lead Time" sheetId="5" r:id="rId5"/>
     <sheet name="Throughput" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="171027" iterateDelta="1E-4"/>
+  <calcPr calcId="150001" iterateDelta="1E-4" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="S1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -98,7 +106,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00;\(#,##0.00\)"/>
   </numFmts>
@@ -313,7 +321,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="1"/>
@@ -329,12 +337,13 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr b="1"/>
+              <a:rPr lang="en-US" b="1"/>
               <a:t>Cumulative Flow</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -383,7 +392,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="0"/>
               </c:ext>
@@ -396,118 +405,118 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="38"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13</c:v>
+                  <c:v>13.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>16</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>17</c:v>
+                  <c:v>17.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>18</c:v>
+                  <c:v>18.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>19</c:v>
+                  <c:v>19.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>20</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>21</c:v>
+                  <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>22</c:v>
+                  <c:v>22.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>23</c:v>
+                  <c:v>23.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>24</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>25</c:v>
+                  <c:v>25.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>26</c:v>
+                  <c:v>26.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>27</c:v>
+                  <c:v>27.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>28</c:v>
+                  <c:v>28.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>29</c:v>
+                  <c:v>29.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>30</c:v>
+                  <c:v>30.0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>31</c:v>
+                  <c:v>31.0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>32</c:v>
+                  <c:v>32.0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>33</c:v>
+                  <c:v>33.0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>34</c:v>
+                  <c:v>34.0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>35</c:v>
+                  <c:v>35.0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>36</c:v>
+                  <c:v>36.0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>37</c:v>
+                  <c:v>37.0</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>38</c:v>
+                  <c:v>38.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -519,15 +528,18 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="38"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-D5F8-4BB2-A508-B95C38BFD4D5}"/>
             </c:ext>
@@ -573,7 +585,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="0"/>
               </c:ext>
@@ -586,118 +598,118 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="38"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13</c:v>
+                  <c:v>13.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>16</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>17</c:v>
+                  <c:v>17.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>18</c:v>
+                  <c:v>18.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>19</c:v>
+                  <c:v>19.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>20</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>21</c:v>
+                  <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>22</c:v>
+                  <c:v>22.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>23</c:v>
+                  <c:v>23.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>24</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>25</c:v>
+                  <c:v>25.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>26</c:v>
+                  <c:v>26.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>27</c:v>
+                  <c:v>27.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>28</c:v>
+                  <c:v>28.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>29</c:v>
+                  <c:v>29.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>30</c:v>
+                  <c:v>30.0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>31</c:v>
+                  <c:v>31.0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>32</c:v>
+                  <c:v>32.0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>33</c:v>
+                  <c:v>33.0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>34</c:v>
+                  <c:v>34.0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>35</c:v>
+                  <c:v>35.0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>36</c:v>
+                  <c:v>36.0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>37</c:v>
+                  <c:v>37.0</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>38</c:v>
+                  <c:v>38.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -709,15 +721,18 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="38"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-D5F8-4BB2-A508-B95C38BFD4D5}"/>
             </c:ext>
@@ -763,7 +778,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="0"/>
               </c:ext>
@@ -776,118 +791,118 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="38"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13</c:v>
+                  <c:v>13.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>16</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>17</c:v>
+                  <c:v>17.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>18</c:v>
+                  <c:v>18.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>19</c:v>
+                  <c:v>19.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>20</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>21</c:v>
+                  <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>22</c:v>
+                  <c:v>22.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>23</c:v>
+                  <c:v>23.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>24</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>25</c:v>
+                  <c:v>25.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>26</c:v>
+                  <c:v>26.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>27</c:v>
+                  <c:v>27.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>28</c:v>
+                  <c:v>28.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>29</c:v>
+                  <c:v>29.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>30</c:v>
+                  <c:v>30.0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>31</c:v>
+                  <c:v>31.0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>32</c:v>
+                  <c:v>32.0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>33</c:v>
+                  <c:v>33.0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>34</c:v>
+                  <c:v>34.0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>35</c:v>
+                  <c:v>35.0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>36</c:v>
+                  <c:v>36.0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>37</c:v>
+                  <c:v>37.0</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>38</c:v>
+                  <c:v>38.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -899,15 +914,18 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="38"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-D5F8-4BB2-A508-B95C38BFD4D5}"/>
             </c:ext>
@@ -953,7 +971,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="0"/>
               </c:ext>
@@ -966,118 +984,118 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="38"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13</c:v>
+                  <c:v>13.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>16</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>17</c:v>
+                  <c:v>17.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>18</c:v>
+                  <c:v>18.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>19</c:v>
+                  <c:v>19.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>20</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>21</c:v>
+                  <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>22</c:v>
+                  <c:v>22.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>23</c:v>
+                  <c:v>23.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>24</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>25</c:v>
+                  <c:v>25.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>26</c:v>
+                  <c:v>26.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>27</c:v>
+                  <c:v>27.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>28</c:v>
+                  <c:v>28.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>29</c:v>
+                  <c:v>29.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>30</c:v>
+                  <c:v>30.0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>31</c:v>
+                  <c:v>31.0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>32</c:v>
+                  <c:v>32.0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>33</c:v>
+                  <c:v>33.0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>34</c:v>
+                  <c:v>34.0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>35</c:v>
+                  <c:v>35.0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>36</c:v>
+                  <c:v>36.0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>37</c:v>
+                  <c:v>37.0</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>38</c:v>
+                  <c:v>38.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1089,15 +1107,18 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="38"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-D5F8-4BB2-A508-B95C38BFD4D5}"/>
             </c:ext>
@@ -1143,7 +1164,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="0"/>
               </c:ext>
@@ -1156,118 +1177,118 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="38"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13</c:v>
+                  <c:v>13.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>16</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>17</c:v>
+                  <c:v>17.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>18</c:v>
+                  <c:v>18.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>19</c:v>
+                  <c:v>19.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>20</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>21</c:v>
+                  <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>22</c:v>
+                  <c:v>22.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>23</c:v>
+                  <c:v>23.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>24</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>25</c:v>
+                  <c:v>25.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>26</c:v>
+                  <c:v>26.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>27</c:v>
+                  <c:v>27.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>28</c:v>
+                  <c:v>28.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>29</c:v>
+                  <c:v>29.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>30</c:v>
+                  <c:v>30.0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>31</c:v>
+                  <c:v>31.0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>32</c:v>
+                  <c:v>32.0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>33</c:v>
+                  <c:v>33.0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>34</c:v>
+                  <c:v>34.0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>35</c:v>
+                  <c:v>35.0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>36</c:v>
+                  <c:v>36.0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>37</c:v>
+                  <c:v>37.0</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>38</c:v>
+                  <c:v>38.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1279,15 +1300,18 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="38"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-D5F8-4BB2-A508-B95C38BFD4D5}"/>
             </c:ext>
@@ -1333,7 +1357,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="0"/>
               </c:ext>
@@ -1346,118 +1370,118 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="38"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13</c:v>
+                  <c:v>13.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>16</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>17</c:v>
+                  <c:v>17.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>18</c:v>
+                  <c:v>18.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>19</c:v>
+                  <c:v>19.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>20</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>21</c:v>
+                  <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>22</c:v>
+                  <c:v>22.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>23</c:v>
+                  <c:v>23.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>24</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>25</c:v>
+                  <c:v>25.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>26</c:v>
+                  <c:v>26.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>27</c:v>
+                  <c:v>27.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>28</c:v>
+                  <c:v>28.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>29</c:v>
+                  <c:v>29.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>30</c:v>
+                  <c:v>30.0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>31</c:v>
+                  <c:v>31.0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>32</c:v>
+                  <c:v>32.0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>33</c:v>
+                  <c:v>33.0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>34</c:v>
+                  <c:v>34.0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>35</c:v>
+                  <c:v>35.0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>36</c:v>
+                  <c:v>36.0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>37</c:v>
+                  <c:v>37.0</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>38</c:v>
+                  <c:v>38.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1469,15 +1493,18 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="38"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-D5F8-4BB2-A508-B95C38BFD4D5}"/>
             </c:ext>
@@ -1491,11 +1518,241 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="43161184"/>
-        <c:axId val="67622835"/>
+        <c:axId val="1209155376"/>
+        <c:axId val="1121904640"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="43161184"/>
+        <c:axId val="1209155376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="1"/>
+                  <a:t>Week</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="1"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="1121904640"/>
+        <c:crossesAt val="0.0"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1121904640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="1"/>
+                  <a:t>Items</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="1"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="47520">
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="1209155376"/>
+        <c:crossesAt val="0.0"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="1"/>
+  <c:style val="2"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Input!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>WIP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25560">
+              <a:solidFill>
+                <a:srgbClr val="4684EE"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="2"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Input!$I$2:$I$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1521-4CA2-8642-3C5D0758A290}"/>
+            </c:ext>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredCategoryTitle>
+                <c15:cat>
+                  <c:multiLvlStrRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Input!$H$2:$H$39</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                  </c:multiLvlStrRef>
+                </c15:cat>
+              </c15:filteredCategoryTitle>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1234112176"/>
+        <c:axId val="1234115648"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1234112176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1528,15 +1785,15 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="67622835"/>
-        <c:crossesAt val="0"/>
+        <c:crossAx val="1234115648"/>
+        <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="67622835"/>
+        <c:axId val="1234115648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1569,229 +1826,8 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="43161184"/>
-        <c:crossesAt val="0"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="zero"/>
-    <c:showDLblsOverMax val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:noFill/>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="1"/>
-  <c:style val="2"/>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Input!$I$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>WIP</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25560">
-              <a:solidFill>
-                <a:srgbClr val="4684EE"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="diamond"/>
-            <c:size val="2"/>
-          </c:marker>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="1"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>Input!$I$2:$I$39</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-              <c15:filteredCategoryTitle>
-                <c15:cat>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Input!$H$2:$H$39</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                  </c:strRef>
-                </c15:cat>
-              </c15:filteredCategoryTitle>
-            </c:ext>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1521-4CA2-8642-3C5D0758A290}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="80603761"/>
-        <c:axId val="60366534"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="80603761"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr sz="1000" b="1"/>
-                  <a:t>Week</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="1"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-        </c:spPr>
-        <c:crossAx val="60366534"/>
-        <c:crossesAt val="0"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="1"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="60366534"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr sz="1000" b="1"/>
-                  <a:t>Items</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="1"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="47520">
-            <a:noFill/>
-          </a:ln>
-        </c:spPr>
-        <c:crossAx val="80603761"/>
-        <c:crossesAt val="0"/>
+        <c:crossAx val="1234112176"/>
+        <c:crossesAt val="0.0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
@@ -1830,7 +1866,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="1"/>
@@ -1883,7 +1919,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="0"/>
               </c:ext>
@@ -1896,17 +1932,26 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="38"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CD54-4278-9261-829789EDCC1C}"/>
+            </c:ext>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
               <c15:filteredCategoryTitle>
                 <c15:cat>
-                  <c:strRef>
+                  <c:multiLvlStrRef>
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
@@ -1914,12 +1959,9 @@
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
-                  </c:strRef>
+                  </c:multiLvlStrRef>
                 </c15:cat>
               </c15:filteredCategoryTitle>
-            </c:ext>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-CD54-4278-9261-829789EDCC1C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1933,11 +1975,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="98002782"/>
-        <c:axId val="47376680"/>
+        <c:axId val="1234141408"/>
+        <c:axId val="1234144528"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="98002782"/>
+        <c:axId val="1234141408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1970,15 +2012,15 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="47376680"/>
-        <c:crossesAt val="0"/>
+        <c:crossAx val="1234144528"/>
+        <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="47376680"/>
+        <c:axId val="1234144528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2011,8 +2053,8 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="98002782"/>
-        <c:crossesAt val="0"/>
+        <c:crossAx val="1234141408"/>
+        <c:crossesAt val="0.0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
@@ -2051,7 +2093,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="1"/>
@@ -2121,7 +2163,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="0"/>
               </c:ext>
@@ -2132,11 +2174,14 @@
               <c:f>Input!$P$2:$P$39</c:f>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BDE0-498A-A730-72AB8A720592}"/>
+            </c:ext>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
               <c15:filteredCategoryTitle>
                 <c15:cat>
-                  <c:strRef>
+                  <c:multiLvlStrRef>
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
@@ -2144,12 +2189,9 @@
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
-                  </c:strRef>
+                  </c:multiLvlStrRef>
                 </c15:cat>
               </c15:filteredCategoryTitle>
-            </c:ext>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-BDE0-498A-A730-72AB8A720592}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2193,7 +2235,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="0"/>
               </c:ext>
@@ -2204,11 +2246,14 @@
               <c:f>Input!$O$2:$O$39</c:f>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BDE0-498A-A730-72AB8A720592}"/>
+            </c:ext>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
               <c15:filteredCategoryTitle>
                 <c15:cat>
-                  <c:strRef>
+                  <c:multiLvlStrRef>
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
@@ -2216,12 +2261,9 @@
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
-                  </c:strRef>
+                  </c:multiLvlStrRef>
                 </c15:cat>
               </c15:filteredCategoryTitle>
-            </c:ext>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-BDE0-498A-A730-72AB8A720592}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2233,11 +2275,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="56832562"/>
-        <c:axId val="7113986"/>
+        <c:axId val="1233977712"/>
+        <c:axId val="1233962848"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="56832562"/>
+        <c:axId val="1233977712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2270,15 +2312,15 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="7113986"/>
-        <c:crossesAt val="0"/>
+        <c:crossAx val="1233962848"/>
+        <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="7113986"/>
+        <c:axId val="1233962848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2292,8 +2334,8 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="56832562"/>
-        <c:crossesAt val="0"/>
+        <c:crossAx val="1233977712"/>
+        <c:crossesAt val="0.0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -2332,7 +2374,7 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="1"/>
@@ -2385,7 +2427,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="0"/>
               </c:ext>
@@ -2398,17 +2440,26 @@
                 <c:formatCode>#,##0.00;\(#,##0.00\)</c:formatCode>
                 <c:ptCount val="38"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3C0E-4CAE-858C-053B9E128B32}"/>
+            </c:ext>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
               <c15:filteredCategoryTitle>
                 <c15:cat>
-                  <c:strRef>
+                  <c:multiLvlStrRef>
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
@@ -2416,12 +2467,9 @@
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
-                  </c:strRef>
+                  </c:multiLvlStrRef>
                 </c15:cat>
               </c15:filteredCategoryTitle>
-            </c:ext>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3C0E-4CAE-858C-053B9E128B32}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2435,11 +2483,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="27731719"/>
-        <c:axId val="59126706"/>
+        <c:axId val="1121708592"/>
+        <c:axId val="1121414928"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="27731719"/>
+        <c:axId val="1121708592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2472,15 +2520,15 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="59126706"/>
-        <c:crossesAt val="0"/>
+        <c:crossAx val="1121414928"/>
+        <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="59126706"/>
+        <c:axId val="1121414928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2513,8 +2561,8 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="27731719"/>
-        <c:crossesAt val="0"/>
+        <c:crossAx val="1121708592"/>
+        <c:crossesAt val="0.0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
@@ -2572,7 +2620,7 @@
         <xdr:cNvPr id="1026" name="shapetype_202" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A4A7341-BDCF-4ACE-91F4-F323EA00DAE2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1A4A7341-BDCF-4ACE-91F4-F323EA00DAE2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2626,7 +2674,7 @@
         <xdr:cNvPr id="2" name="Chart 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2667,7 +2715,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2708,7 +2756,7 @@
         <xdr:cNvPr id="2" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2749,7 +2797,7 @@
         <xdr:cNvPr id="3" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2790,7 +2838,7 @@
         <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3107,35 +3155,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomLeft" activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="5.7265625" style="6"/>
-    <col min="2" max="2" width="9.453125" style="6"/>
-    <col min="3" max="3" width="9.54296875" style="6"/>
-    <col min="4" max="4" width="11.7265625" style="6"/>
-    <col min="5" max="5" width="16.453125" style="6"/>
-    <col min="6" max="6" width="15.54296875" style="6"/>
-    <col min="7" max="7" width="11.7265625" style="6"/>
+    <col min="1" max="7" width="8.83203125" style="6"/>
     <col min="8" max="8" width="0" style="6" hidden="1"/>
-    <col min="9" max="9" width="10.54296875" style="6"/>
+    <col min="9" max="9" width="8.83203125" style="6"/>
     <col min="10" max="12" width="0" style="6" hidden="1"/>
-    <col min="13" max="13" width="18.26953125" style="6"/>
+    <col min="13" max="13" width="8.83203125" style="6"/>
     <col min="14" max="17" width="0" style="6" hidden="1"/>
-    <col min="18" max="18" width="11.1796875" style="6"/>
+    <col min="18" max="18" width="8.83203125" style="6"/>
     <col min="19" max="23" width="0" style="6" hidden="1"/>
-    <col min="24" max="1025" width="14.453125" style="6"/>
-    <col min="1026" max="16384" width="8.7265625" style="6"/>
+    <col min="24" max="16384" width="8.83203125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="38" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" ht="42" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3206,7 +3247,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" ht="14" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -3293,7 +3334,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" ht="14" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <f t="shared" ref="A3:A39" si="5">A2+1</f>
         <v>2</v>
@@ -3317,16 +3358,46 @@
         <v>7</v>
       </c>
       <c r="H3" s="3"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="8"/>
+      <c r="I3" s="4">
+        <f>SUM($C3:$F3)</f>
+        <v>5</v>
+      </c>
+      <c r="J3" s="4">
+        <f>SUM($B3:$F3)</f>
+        <v>11</v>
+      </c>
+      <c r="K3" s="4">
+        <f ca="1">INDIRECT("A"&amp;(MATCH($J3, $B$2:$B$999, 1)+2))</f>
+        <v>4</v>
+      </c>
+      <c r="L3" s="4">
+        <f>$A3</f>
+        <v>2</v>
+      </c>
+      <c r="M3" s="4">
+        <f ca="1">IF(SIGN(K3)=1,K3-A3,"Unknown")</f>
+        <v>2</v>
+      </c>
+      <c r="N3" s="4">
+        <f>$A3</f>
+        <v>2</v>
+      </c>
+      <c r="O3" s="4">
+        <f>I3</f>
+        <v>5</v>
+      </c>
+      <c r="P3" s="4">
+        <f ca="1">M3</f>
+        <v>2</v>
+      </c>
+      <c r="Q3" s="4">
+        <f>$A3</f>
+        <v>2</v>
+      </c>
+      <c r="R3" s="8">
+        <f ca="1">I3/M3</f>
+        <v>2.5</v>
+      </c>
       <c r="S3" s="3">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -3336,40 +3407,82 @@
         <v>2</v>
       </c>
       <c r="U3" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
       </c>
       <c r="V3" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="W3" s="3">
         <f t="shared" si="4"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" ht="14" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" ht="14" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
+      <c r="B4" s="7">
+        <v>9</v>
+      </c>
+      <c r="C4" s="7">
+        <v>2</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0</v>
+      </c>
+      <c r="E4" s="7">
+        <v>3</v>
+      </c>
+      <c r="F4" s="7">
+        <v>3</v>
+      </c>
+      <c r="G4" s="7">
+        <v>2</v>
+      </c>
       <c r="H4" s="3"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="8"/>
+      <c r="I4" s="4">
+        <f>SUM($C4:$F4)</f>
+        <v>8</v>
+      </c>
+      <c r="J4" s="4">
+        <f>SUM($B4:$F4)</f>
+        <v>17</v>
+      </c>
+      <c r="K4" s="4">
+        <f ca="1">INDIRECT("A"&amp;(MATCH($J4, $B$2:$B$999, 1)+2))</f>
+        <v>4</v>
+      </c>
+      <c r="L4" s="4">
+        <f>$A4</f>
+        <v>3</v>
+      </c>
+      <c r="M4" s="4">
+        <f ca="1">IF(SIGN(K4)=1,K4-A4,"Unknown")</f>
+        <v>1</v>
+      </c>
+      <c r="N4" s="4">
+        <f>$A4</f>
+        <v>3</v>
+      </c>
+      <c r="O4" s="4">
+        <f>I4</f>
+        <v>8</v>
+      </c>
+      <c r="P4" s="4">
+        <f ca="1">M4</f>
+        <v>1</v>
+      </c>
+      <c r="Q4" s="4">
+        <f>$A4</f>
+        <v>3</v>
+      </c>
+      <c r="R4" s="8">
+        <f ca="1">I4/M4</f>
+        <v>8</v>
+      </c>
       <c r="S4" s="3">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -3379,19 +3492,19 @@
         <v>3</v>
       </c>
       <c r="U4" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
       </c>
       <c r="V4" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="W4" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" ht="14" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" ht="14" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <f t="shared" si="5"/>
         <v>4</v>
@@ -3434,7 +3547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" ht="14" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <f t="shared" si="5"/>
         <v>5</v>
@@ -3477,7 +3590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" ht="14" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <f t="shared" si="5"/>
         <v>6</v>
@@ -3520,7 +3633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" ht="14" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <f t="shared" si="5"/>
         <v>7</v>
@@ -3563,7 +3676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" ht="14" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <f t="shared" si="5"/>
         <v>8</v>
@@ -3606,7 +3719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" ht="14" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <f t="shared" si="5"/>
         <v>9</v>
@@ -3649,7 +3762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" ht="14" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <f t="shared" si="5"/>
         <v>10</v>
@@ -3692,7 +3805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" ht="14" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <f t="shared" si="5"/>
         <v>11</v>
@@ -3735,7 +3848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" ht="14" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <f t="shared" si="5"/>
         <v>12</v>
@@ -3778,7 +3891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" ht="14" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <f t="shared" si="5"/>
         <v>13</v>
@@ -3820,7 +3933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" ht="14" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <f t="shared" si="5"/>
         <v>14</v>
@@ -3863,7 +3976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" ht="14" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <f t="shared" si="5"/>
         <v>15</v>
@@ -3906,7 +4019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:23" ht="14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:23" ht="14" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <f t="shared" si="5"/>
         <v>16</v>
@@ -3949,7 +4062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:23" ht="14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:23" ht="14" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <f t="shared" si="5"/>
         <v>17</v>
@@ -3992,7 +4105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:23" ht="14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:23" ht="14" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <f t="shared" si="5"/>
         <v>18</v>
@@ -4035,7 +4148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:23" ht="14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:23" ht="14" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <f t="shared" si="5"/>
         <v>19</v>
@@ -4078,7 +4191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:23" ht="14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:23" ht="14" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <f t="shared" si="5"/>
         <v>20</v>
@@ -4121,7 +4234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:23" ht="14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:23" ht="14" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <f t="shared" si="5"/>
         <v>21</v>
@@ -4164,7 +4277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:23" ht="14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:23" ht="14" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <f t="shared" si="5"/>
         <v>22</v>
@@ -4207,7 +4320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:23" ht="14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:23" ht="14" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <f t="shared" si="5"/>
         <v>23</v>
@@ -4250,7 +4363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:23" ht="14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:23" ht="14" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <f t="shared" si="5"/>
         <v>24</v>
@@ -4293,7 +4406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:23" ht="14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:23" ht="14" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
         <f t="shared" si="5"/>
         <v>25</v>
@@ -4336,7 +4449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:23" ht="14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:23" ht="14" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
         <f t="shared" si="5"/>
         <v>26</v>
@@ -4379,7 +4492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:23" ht="14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:23" ht="14" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
         <f t="shared" si="5"/>
         <v>27</v>
@@ -4422,7 +4535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:23" ht="14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:23" ht="14" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
         <f t="shared" si="5"/>
         <v>28</v>
@@ -4465,7 +4578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:23" ht="14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:23" ht="14" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
         <f t="shared" si="5"/>
         <v>29</v>
@@ -4508,7 +4621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:23" ht="14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:23" ht="14" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
         <f t="shared" si="5"/>
         <v>30</v>
@@ -4551,7 +4664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:23" ht="14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:23" ht="14" x14ac:dyDescent="0.15">
       <c r="A32" s="1">
         <f t="shared" si="5"/>
         <v>31</v>
@@ -4594,7 +4707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:23" ht="14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:23" ht="14" x14ac:dyDescent="0.15">
       <c r="A33" s="1">
         <f t="shared" si="5"/>
         <v>32</v>
@@ -4637,7 +4750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:23" ht="14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:23" ht="14" x14ac:dyDescent="0.15">
       <c r="A34" s="1">
         <f t="shared" si="5"/>
         <v>33</v>
@@ -4680,7 +4793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:23" ht="14" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:23" ht="14" x14ac:dyDescent="0.15">
       <c r="A35" s="1">
         <f t="shared" si="5"/>
         <v>34</v>
@@ -4723,7 +4836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:23" ht="14" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:23" ht="14" x14ac:dyDescent="0.15">
       <c r="A36" s="1">
         <f t="shared" si="5"/>
         <v>35</v>
@@ -4766,7 +4879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:23" ht="14" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:23" ht="14" x14ac:dyDescent="0.15">
       <c r="A37" s="1">
         <f t="shared" si="5"/>
         <v>36</v>
@@ -4809,7 +4922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:23" ht="14" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:23" ht="14" x14ac:dyDescent="0.15">
       <c r="A38" s="1">
         <f t="shared" si="5"/>
         <v>37</v>
@@ -4852,7 +4965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:23" ht="14" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:23" ht="14" x14ac:dyDescent="0.15">
       <c r="A39" s="1">
         <f t="shared" si="5"/>
         <v>38</v>
@@ -4895,7 +5008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.15">
       <c r="H40" s="9"/>
       <c r="I40" s="10"/>
       <c r="J40" s="11"/>
@@ -4913,7 +5026,7 @@
       <c r="V40" s="12"/>
       <c r="W40" s="3"/>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.15">
       <c r="H41" s="9"/>
       <c r="I41" s="10"/>
       <c r="J41" s="11"/>
@@ -4931,7 +5044,7 @@
       <c r="V41" s="12"/>
       <c r="W41" s="3"/>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.15">
       <c r="H42" s="9"/>
       <c r="I42" s="10"/>
       <c r="J42" s="11"/>
@@ -4949,7 +5062,7 @@
       <c r="V42" s="12"/>
       <c r="W42" s="3"/>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.15">
       <c r="H43" s="9"/>
       <c r="I43" s="10"/>
       <c r="J43" s="11"/>
@@ -4967,7 +5080,7 @@
       <c r="V43" s="12"/>
       <c r="W43" s="3"/>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.15">
       <c r="H44" s="9"/>
       <c r="I44" s="10"/>
       <c r="J44" s="11"/>
@@ -4985,7 +5098,7 @@
       <c r="V44" s="12"/>
       <c r="W44" s="3"/>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.15">
       <c r="H45" s="9"/>
       <c r="I45" s="10"/>
       <c r="J45" s="11"/>
@@ -5003,7 +5116,7 @@
       <c r="V45" s="12"/>
       <c r="W45" s="3"/>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.15">
       <c r="H46" s="9"/>
       <c r="I46" s="10"/>
       <c r="J46" s="11"/>
@@ -5021,7 +5134,7 @@
       <c r="V46" s="12"/>
       <c r="W46" s="3"/>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.15">
       <c r="H47" s="9"/>
       <c r="I47" s="10"/>
       <c r="J47" s="11"/>
@@ -5039,7 +5152,7 @@
       <c r="V47" s="12"/>
       <c r="W47" s="3"/>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.15">
       <c r="H48" s="9"/>
       <c r="I48" s="10"/>
       <c r="J48" s="11"/>
@@ -5057,7 +5170,7 @@
       <c r="V48" s="12"/>
       <c r="W48" s="3"/>
     </row>
-    <row r="49" spans="8:23" x14ac:dyDescent="0.25">
+    <row r="49" spans="8:23" x14ac:dyDescent="0.15">
       <c r="H49" s="9"/>
       <c r="I49" s="10"/>
       <c r="J49" s="11"/>
@@ -5075,7 +5188,7 @@
       <c r="V49" s="12"/>
       <c r="W49" s="3"/>
     </row>
-    <row r="50" spans="8:23" x14ac:dyDescent="0.25">
+    <row r="50" spans="8:23" x14ac:dyDescent="0.15">
       <c r="H50" s="9"/>
       <c r="I50" s="10"/>
       <c r="J50" s="11"/>
@@ -5093,7 +5206,7 @@
       <c r="V50" s="12"/>
       <c r="W50" s="3"/>
     </row>
-    <row r="51" spans="8:23" x14ac:dyDescent="0.25">
+    <row r="51" spans="8:23" x14ac:dyDescent="0.15">
       <c r="H51" s="9"/>
       <c r="I51" s="10"/>
       <c r="J51" s="11"/>
@@ -5111,7 +5224,7 @@
       <c r="V51" s="12"/>
       <c r="W51" s="3"/>
     </row>
-    <row r="52" spans="8:23" x14ac:dyDescent="0.25">
+    <row r="52" spans="8:23" x14ac:dyDescent="0.15">
       <c r="H52" s="9"/>
       <c r="I52" s="10"/>
       <c r="J52" s="11"/>
@@ -5129,7 +5242,7 @@
       <c r="V52" s="12"/>
       <c r="W52" s="3"/>
     </row>
-    <row r="53" spans="8:23" x14ac:dyDescent="0.25">
+    <row r="53" spans="8:23" x14ac:dyDescent="0.15">
       <c r="H53" s="9"/>
       <c r="I53" s="10"/>
       <c r="J53" s="11"/>
@@ -5147,7 +5260,7 @@
       <c r="V53" s="12"/>
       <c r="W53" s="3"/>
     </row>
-    <row r="54" spans="8:23" x14ac:dyDescent="0.25">
+    <row r="54" spans="8:23" x14ac:dyDescent="0.15">
       <c r="H54" s="9"/>
       <c r="I54" s="10"/>
       <c r="J54" s="11"/>
@@ -5165,7 +5278,7 @@
       <c r="V54" s="12"/>
       <c r="W54" s="3"/>
     </row>
-    <row r="55" spans="8:23" x14ac:dyDescent="0.25">
+    <row r="55" spans="8:23" x14ac:dyDescent="0.15">
       <c r="H55" s="9"/>
       <c r="I55" s="10"/>
       <c r="J55" s="11"/>
@@ -5183,7 +5296,7 @@
       <c r="V55" s="12"/>
       <c r="W55" s="3"/>
     </row>
-    <row r="56" spans="8:23" x14ac:dyDescent="0.25">
+    <row r="56" spans="8:23" x14ac:dyDescent="0.15">
       <c r="H56" s="9"/>
       <c r="I56" s="10"/>
       <c r="J56" s="11"/>
@@ -5201,7 +5314,7 @@
       <c r="V56" s="12"/>
       <c r="W56" s="3"/>
     </row>
-    <row r="57" spans="8:23" x14ac:dyDescent="0.25">
+    <row r="57" spans="8:23" x14ac:dyDescent="0.15">
       <c r="H57" s="9"/>
       <c r="I57" s="10"/>
       <c r="J57" s="11"/>
@@ -5219,7 +5332,7 @@
       <c r="V57" s="12"/>
       <c r="W57" s="3"/>
     </row>
-    <row r="58" spans="8:23" x14ac:dyDescent="0.25">
+    <row r="58" spans="8:23" x14ac:dyDescent="0.15">
       <c r="H58" s="9"/>
       <c r="I58" s="10"/>
       <c r="J58" s="11"/>
@@ -5237,7 +5350,7 @@
       <c r="V58" s="12"/>
       <c r="W58" s="3"/>
     </row>
-    <row r="59" spans="8:23" x14ac:dyDescent="0.25">
+    <row r="59" spans="8:23" x14ac:dyDescent="0.15">
       <c r="H59" s="9"/>
       <c r="I59" s="10"/>
       <c r="J59" s="11"/>
@@ -5255,7 +5368,7 @@
       <c r="V59" s="12"/>
       <c r="W59" s="3"/>
     </row>
-    <row r="60" spans="8:23" x14ac:dyDescent="0.25">
+    <row r="60" spans="8:23" x14ac:dyDescent="0.15">
       <c r="H60" s="9"/>
       <c r="I60" s="10"/>
       <c r="J60" s="11"/>
@@ -5273,7 +5386,7 @@
       <c r="V60" s="12"/>
       <c r="W60" s="3"/>
     </row>
-    <row r="61" spans="8:23" x14ac:dyDescent="0.25">
+    <row r="61" spans="8:23" x14ac:dyDescent="0.15">
       <c r="H61" s="9"/>
       <c r="I61" s="10"/>
       <c r="J61" s="11"/>
@@ -5291,7 +5404,7 @@
       <c r="V61" s="12"/>
       <c r="W61" s="3"/>
     </row>
-    <row r="62" spans="8:23" x14ac:dyDescent="0.25">
+    <row r="62" spans="8:23" x14ac:dyDescent="0.15">
       <c r="H62" s="9"/>
       <c r="I62" s="10"/>
       <c r="J62" s="11"/>
@@ -5309,7 +5422,7 @@
       <c r="V62" s="12"/>
       <c r="W62" s="3"/>
     </row>
-    <row r="63" spans="8:23" x14ac:dyDescent="0.25">
+    <row r="63" spans="8:23" x14ac:dyDescent="0.15">
       <c r="H63" s="9"/>
       <c r="I63" s="10"/>
       <c r="J63" s="11"/>
@@ -5327,7 +5440,7 @@
       <c r="V63" s="12"/>
       <c r="W63" s="3"/>
     </row>
-    <row r="64" spans="8:23" x14ac:dyDescent="0.25">
+    <row r="64" spans="8:23" x14ac:dyDescent="0.15">
       <c r="H64" s="9"/>
       <c r="I64" s="10"/>
       <c r="J64" s="11"/>
@@ -5345,7 +5458,7 @@
       <c r="V64" s="12"/>
       <c r="W64" s="3"/>
     </row>
-    <row r="65" spans="8:23" x14ac:dyDescent="0.25">
+    <row r="65" spans="8:23" x14ac:dyDescent="0.15">
       <c r="H65" s="9"/>
       <c r="I65" s="10"/>
       <c r="J65" s="11"/>
@@ -5363,7 +5476,7 @@
       <c r="V65" s="12"/>
       <c r="W65" s="3"/>
     </row>
-    <row r="66" spans="8:23" x14ac:dyDescent="0.25">
+    <row r="66" spans="8:23" x14ac:dyDescent="0.15">
       <c r="H66" s="9"/>
       <c r="I66" s="10"/>
       <c r="J66" s="11"/>
@@ -5381,7 +5494,7 @@
       <c r="V66" s="12"/>
       <c r="W66" s="3"/>
     </row>
-    <row r="67" spans="8:23" x14ac:dyDescent="0.25">
+    <row r="67" spans="8:23" x14ac:dyDescent="0.15">
       <c r="H67" s="9"/>
       <c r="I67" s="10"/>
       <c r="J67" s="11"/>
@@ -5399,7 +5512,7 @@
       <c r="V67" s="12"/>
       <c r="W67" s="3"/>
     </row>
-    <row r="68" spans="8:23" x14ac:dyDescent="0.25">
+    <row r="68" spans="8:23" x14ac:dyDescent="0.15">
       <c r="H68" s="9"/>
       <c r="I68" s="10"/>
       <c r="J68" s="11"/>
@@ -5417,7 +5530,7 @@
       <c r="V68" s="12"/>
       <c r="W68" s="3"/>
     </row>
-    <row r="69" spans="8:23" x14ac:dyDescent="0.25">
+    <row r="69" spans="8:23" x14ac:dyDescent="0.15">
       <c r="H69" s="9"/>
       <c r="I69" s="10"/>
       <c r="J69" s="11"/>
@@ -5435,7 +5548,7 @@
       <c r="V69" s="12"/>
       <c r="W69" s="3"/>
     </row>
-    <row r="70" spans="8:23" x14ac:dyDescent="0.25">
+    <row r="70" spans="8:23" x14ac:dyDescent="0.15">
       <c r="H70" s="9"/>
       <c r="I70" s="10"/>
       <c r="J70" s="11"/>
@@ -5453,7 +5566,7 @@
       <c r="V70" s="12"/>
       <c r="W70" s="3"/>
     </row>
-    <row r="71" spans="8:23" x14ac:dyDescent="0.25">
+    <row r="71" spans="8:23" x14ac:dyDescent="0.15">
       <c r="H71" s="9"/>
       <c r="I71" s="10"/>
       <c r="J71" s="11"/>
@@ -5471,7 +5584,7 @@
       <c r="V71" s="12"/>
       <c r="W71" s="3"/>
     </row>
-    <row r="72" spans="8:23" x14ac:dyDescent="0.25">
+    <row r="72" spans="8:23" x14ac:dyDescent="0.15">
       <c r="H72" s="9"/>
       <c r="I72" s="10"/>
       <c r="J72" s="11"/>
@@ -5489,7 +5602,7 @@
       <c r="V72" s="12"/>
       <c r="W72" s="3"/>
     </row>
-    <row r="73" spans="8:23" x14ac:dyDescent="0.25">
+    <row r="73" spans="8:23" x14ac:dyDescent="0.15">
       <c r="H73" s="9"/>
       <c r="I73" s="10"/>
       <c r="J73" s="11"/>
@@ -5507,7 +5620,7 @@
       <c r="V73" s="12"/>
       <c r="W73" s="3"/>
     </row>
-    <row r="74" spans="8:23" x14ac:dyDescent="0.25">
+    <row r="74" spans="8:23" x14ac:dyDescent="0.15">
       <c r="H74" s="9"/>
       <c r="I74" s="10"/>
       <c r="J74" s="11"/>
@@ -5525,7 +5638,7 @@
       <c r="V74" s="12"/>
       <c r="W74" s="3"/>
     </row>
-    <row r="75" spans="8:23" x14ac:dyDescent="0.25">
+    <row r="75" spans="8:23" x14ac:dyDescent="0.15">
       <c r="H75" s="9"/>
       <c r="I75" s="10"/>
       <c r="J75" s="11"/>
@@ -5543,7 +5656,7 @@
       <c r="V75" s="12"/>
       <c r="W75" s="3"/>
     </row>
-    <row r="76" spans="8:23" x14ac:dyDescent="0.25">
+    <row r="76" spans="8:23" x14ac:dyDescent="0.15">
       <c r="H76" s="9"/>
       <c r="I76" s="10"/>
       <c r="J76" s="11"/>
@@ -5561,7 +5674,7 @@
       <c r="V76" s="12"/>
       <c r="W76" s="3"/>
     </row>
-    <row r="77" spans="8:23" x14ac:dyDescent="0.25">
+    <row r="77" spans="8:23" x14ac:dyDescent="0.15">
       <c r="H77" s="9"/>
       <c r="I77" s="10"/>
       <c r="J77" s="11"/>
@@ -5579,7 +5692,7 @@
       <c r="V77" s="12"/>
       <c r="W77" s="3"/>
     </row>
-    <row r="78" spans="8:23" x14ac:dyDescent="0.25">
+    <row r="78" spans="8:23" x14ac:dyDescent="0.15">
       <c r="H78" s="9"/>
       <c r="I78" s="10"/>
       <c r="J78" s="11"/>
@@ -5597,7 +5710,7 @@
       <c r="V78" s="12"/>
       <c r="W78" s="3"/>
     </row>
-    <row r="79" spans="8:23" x14ac:dyDescent="0.25">
+    <row r="79" spans="8:23" x14ac:dyDescent="0.15">
       <c r="H79" s="9"/>
       <c r="I79" s="10"/>
       <c r="J79" s="11"/>
@@ -5615,7 +5728,7 @@
       <c r="V79" s="12"/>
       <c r="W79" s="3"/>
     </row>
-    <row r="80" spans="8:23" x14ac:dyDescent="0.25">
+    <row r="80" spans="8:23" x14ac:dyDescent="0.15">
       <c r="H80" s="9"/>
       <c r="I80" s="10"/>
       <c r="J80" s="11"/>
@@ -5633,7 +5746,7 @@
       <c r="V80" s="12"/>
       <c r="W80" s="3"/>
     </row>
-    <row r="81" spans="8:23" x14ac:dyDescent="0.25">
+    <row r="81" spans="8:23" x14ac:dyDescent="0.15">
       <c r="H81" s="9"/>
       <c r="I81" s="10"/>
       <c r="J81" s="11"/>
@@ -5651,7 +5764,7 @@
       <c r="V81" s="12"/>
       <c r="W81" s="3"/>
     </row>
-    <row r="82" spans="8:23" x14ac:dyDescent="0.25">
+    <row r="82" spans="8:23" x14ac:dyDescent="0.15">
       <c r="H82" s="9"/>
       <c r="I82" s="10"/>
       <c r="J82" s="11"/>
@@ -5669,7 +5782,7 @@
       <c r="V82" s="12"/>
       <c r="W82" s="3"/>
     </row>
-    <row r="83" spans="8:23" x14ac:dyDescent="0.25">
+    <row r="83" spans="8:23" x14ac:dyDescent="0.15">
       <c r="H83" s="9"/>
       <c r="I83" s="10"/>
       <c r="J83" s="11"/>
@@ -5687,7 +5800,7 @@
       <c r="V83" s="12"/>
       <c r="W83" s="3"/>
     </row>
-    <row r="84" spans="8:23" x14ac:dyDescent="0.25">
+    <row r="84" spans="8:23" x14ac:dyDescent="0.15">
       <c r="H84" s="9"/>
       <c r="I84" s="10"/>
       <c r="J84" s="11"/>
@@ -5705,7 +5818,7 @@
       <c r="V84" s="12"/>
       <c r="W84" s="3"/>
     </row>
-    <row r="85" spans="8:23" x14ac:dyDescent="0.25">
+    <row r="85" spans="8:23" x14ac:dyDescent="0.15">
       <c r="H85" s="9"/>
       <c r="I85" s="10"/>
       <c r="J85" s="11"/>
@@ -5723,7 +5836,7 @@
       <c r="V85" s="12"/>
       <c r="W85" s="3"/>
     </row>
-    <row r="86" spans="8:23" x14ac:dyDescent="0.25">
+    <row r="86" spans="8:23" x14ac:dyDescent="0.15">
       <c r="H86" s="9"/>
       <c r="I86" s="10"/>
       <c r="J86" s="11"/>
@@ -5741,7 +5854,7 @@
       <c r="V86" s="12"/>
       <c r="W86" s="3"/>
     </row>
-    <row r="87" spans="8:23" x14ac:dyDescent="0.25">
+    <row r="87" spans="8:23" x14ac:dyDescent="0.15">
       <c r="H87" s="9"/>
       <c r="I87" s="10"/>
       <c r="J87" s="11"/>
@@ -5759,7 +5872,7 @@
       <c r="V87" s="12"/>
       <c r="W87" s="3"/>
     </row>
-    <row r="88" spans="8:23" x14ac:dyDescent="0.25">
+    <row r="88" spans="8:23" x14ac:dyDescent="0.15">
       <c r="H88" s="9"/>
       <c r="I88" s="10"/>
       <c r="J88" s="11"/>
@@ -5777,7 +5890,7 @@
       <c r="V88" s="12"/>
       <c r="W88" s="3"/>
     </row>
-    <row r="89" spans="8:23" x14ac:dyDescent="0.25">
+    <row r="89" spans="8:23" x14ac:dyDescent="0.15">
       <c r="H89" s="9"/>
       <c r="I89" s="10"/>
       <c r="J89" s="11"/>
@@ -5795,7 +5908,7 @@
       <c r="V89" s="12"/>
       <c r="W89" s="3"/>
     </row>
-    <row r="90" spans="8:23" x14ac:dyDescent="0.25">
+    <row r="90" spans="8:23" x14ac:dyDescent="0.15">
       <c r="H90" s="9"/>
       <c r="I90" s="10"/>
       <c r="J90" s="11"/>
@@ -5813,7 +5926,7 @@
       <c r="V90" s="12"/>
       <c r="W90" s="3"/>
     </row>
-    <row r="91" spans="8:23" x14ac:dyDescent="0.25">
+    <row r="91" spans="8:23" x14ac:dyDescent="0.15">
       <c r="H91" s="9"/>
       <c r="I91" s="10"/>
       <c r="J91" s="11"/>
@@ -5831,7 +5944,7 @@
       <c r="V91" s="12"/>
       <c r="W91" s="3"/>
     </row>
-    <row r="92" spans="8:23" x14ac:dyDescent="0.25">
+    <row r="92" spans="8:23" x14ac:dyDescent="0.15">
       <c r="H92" s="9"/>
       <c r="I92" s="10"/>
       <c r="J92" s="11"/>
@@ -5849,7 +5962,7 @@
       <c r="V92" s="12"/>
       <c r="W92" s="3"/>
     </row>
-    <row r="93" spans="8:23" x14ac:dyDescent="0.25">
+    <row r="93" spans="8:23" x14ac:dyDescent="0.15">
       <c r="H93" s="9"/>
       <c r="I93" s="10"/>
       <c r="J93" s="11"/>
@@ -5867,7 +5980,7 @@
       <c r="V93" s="12"/>
       <c r="W93" s="3"/>
     </row>
-    <row r="94" spans="8:23" x14ac:dyDescent="0.25">
+    <row r="94" spans="8:23" x14ac:dyDescent="0.15">
       <c r="H94" s="9"/>
       <c r="I94" s="10"/>
       <c r="J94" s="11"/>
@@ -5885,7 +5998,7 @@
       <c r="V94" s="12"/>
       <c r="W94" s="3"/>
     </row>
-    <row r="95" spans="8:23" x14ac:dyDescent="0.25">
+    <row r="95" spans="8:23" x14ac:dyDescent="0.15">
       <c r="H95" s="9"/>
       <c r="I95" s="10"/>
       <c r="J95" s="11"/>
@@ -5903,7 +6016,7 @@
       <c r="V95" s="12"/>
       <c r="W95" s="3"/>
     </row>
-    <row r="96" spans="8:23" x14ac:dyDescent="0.25">
+    <row r="96" spans="8:23" x14ac:dyDescent="0.15">
       <c r="H96" s="9"/>
       <c r="I96" s="10"/>
       <c r="J96" s="11"/>
@@ -5921,7 +6034,7 @@
       <c r="V96" s="12"/>
       <c r="W96" s="3"/>
     </row>
-    <row r="97" spans="8:23" x14ac:dyDescent="0.25">
+    <row r="97" spans="8:23" x14ac:dyDescent="0.15">
       <c r="H97" s="9"/>
       <c r="I97" s="10"/>
       <c r="J97" s="11"/>
@@ -5939,7 +6052,7 @@
       <c r="V97" s="12"/>
       <c r="W97" s="3"/>
     </row>
-    <row r="98" spans="8:23" x14ac:dyDescent="0.25">
+    <row r="98" spans="8:23" x14ac:dyDescent="0.15">
       <c r="H98" s="9"/>
       <c r="I98" s="10"/>
       <c r="J98" s="11"/>
@@ -5957,7 +6070,7 @@
       <c r="V98" s="12"/>
       <c r="W98" s="3"/>
     </row>
-    <row r="99" spans="8:23" x14ac:dyDescent="0.25">
+    <row r="99" spans="8:23" x14ac:dyDescent="0.15">
       <c r="H99" s="9"/>
       <c r="I99" s="10"/>
       <c r="J99" s="11"/>
@@ -5975,7 +6088,7 @@
       <c r="V99" s="12"/>
       <c r="W99" s="3"/>
     </row>
-    <row r="100" spans="8:23" x14ac:dyDescent="0.25">
+    <row r="100" spans="8:23" x14ac:dyDescent="0.15">
       <c r="H100" s="9"/>
       <c r="I100" s="10"/>
       <c r="J100" s="11"/>
@@ -5993,7 +6106,7 @@
       <c r="V100" s="12"/>
       <c r="W100" s="3"/>
     </row>
-    <row r="101" spans="8:23" x14ac:dyDescent="0.25">
+    <row r="101" spans="8:23" x14ac:dyDescent="0.15">
       <c r="H101" s="9"/>
       <c r="I101" s="10"/>
       <c r="J101" s="11"/>
@@ -6011,7 +6124,7 @@
       <c r="V101" s="12"/>
       <c r="W101" s="3"/>
     </row>
-    <row r="102" spans="8:23" x14ac:dyDescent="0.25">
+    <row r="102" spans="8:23" x14ac:dyDescent="0.15">
       <c r="H102" s="9"/>
       <c r="I102" s="10"/>
       <c r="J102" s="11"/>
@@ -6029,7 +6142,7 @@
       <c r="V102" s="12"/>
       <c r="W102" s="3"/>
     </row>
-    <row r="103" spans="8:23" x14ac:dyDescent="0.25">
+    <row r="103" spans="8:23" x14ac:dyDescent="0.15">
       <c r="H103" s="9"/>
       <c r="I103" s="10"/>
       <c r="J103" s="11"/>
@@ -6047,7 +6160,7 @@
       <c r="V103" s="12"/>
       <c r="W103" s="3"/>
     </row>
-    <row r="104" spans="8:23" x14ac:dyDescent="0.25">
+    <row r="104" spans="8:23" x14ac:dyDescent="0.15">
       <c r="H104" s="9"/>
       <c r="I104" s="10"/>
       <c r="J104" s="11"/>
@@ -6065,7 +6178,7 @@
       <c r="V104" s="12"/>
       <c r="W104" s="3"/>
     </row>
-    <row r="105" spans="8:23" x14ac:dyDescent="0.25">
+    <row r="105" spans="8:23" x14ac:dyDescent="0.15">
       <c r="H105" s="9"/>
       <c r="I105" s="10"/>
       <c r="J105" s="11"/>
@@ -6085,7 +6198,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter text that contains" sqref="A1:G1 A2:A39" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter text that contains" sqref="A1:G1 A2:A39">
       <formula1>NOT(ISERROR(SEARCH((""),(A1))))</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -6098,18 +6211,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1025" width="8.54296875"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -6118,18 +6228,15 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1025" width="8.54296875"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -6138,18 +6245,15 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1025" width="8.54296875"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -6158,18 +6262,15 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1025" width="8.54296875"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -6178,18 +6279,15 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1025" width="8.54296875"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
